--- a/12-22-24 to 12-28-24 Milwaukee Schedule.xlsx
+++ b/12-22-24 to 12-28-24 Milwaukee Schedule.xlsx
@@ -552,11 +552,19 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -583,7 +591,11 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>

--- a/12-22-24 to 12-28-24 Milwaukee Schedule.xlsx
+++ b/12-22-24 to 12-28-24 Milwaukee Schedule.xlsx
@@ -557,7 +557,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
@@ -565,7 +569,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -596,7 +604,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>

--- a/12-22-24 to 12-28-24 Milwaukee Schedule.xlsx
+++ b/12-22-24 to 12-28-24 Milwaukee Schedule.xlsx
@@ -1471,7 +1471,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>

--- a/12-22-24 to 12-28-24 Milwaukee Schedule.xlsx
+++ b/12-22-24 to 12-28-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -1948,41 +1948,6 @@
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-22-24 to 12-28-24 Milwaukee Schedule.xlsx
+++ b/12-22-24 to 12-28-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1948,6 +1948,41 @@
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-22-24 to 12-28-24 Milwaukee Schedule.xlsx
+++ b/12-22-24 to 12-28-24 Milwaukee Schedule.xlsx
@@ -1478,7 +1478,11 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -1505,7 +1509,11 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -1532,7 +1540,11 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>CAPITOL CENTRE MARKET, MADISON</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -1563,7 +1575,11 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>111 N BROOM ST</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -1594,7 +1610,11 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dNaovNNmnMG2</t>
+        </is>
+      </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -1655,9 +1675,21 @@
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -1686,8 +1718,16 @@
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -1717,9 +1757,21 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -1748,9 +1800,21 @@
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -1779,9 +1843,21 @@
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -1810,9 +1886,21 @@
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -1841,9 +1929,21 @@
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
